--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_11.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_11.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="211">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>Наименование оборудования, комплекта</t>
-  </si>
-  <si>
-    <t>Тип, марка</t>
-  </si>
-  <si>
-    <t>Заводской номер или маркировка</t>
   </si>
   <si>
     <t>Инвентарный номер</t>
@@ -625,6 +619,45 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>Заводской номер</t>
+  </si>
+  <si>
+    <t>Маркировка АСБИ</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube171-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube170-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube155-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S3 / fdb117-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S3 / fdb130-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S4 / sdb142-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch230-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch231-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch232-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch233-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S6 / bk103-f1.asbi.grfc.ru</t>
   </si>
 </sst>
 </file>
@@ -1011,9 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1021,7 +1052,7 @@
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="110" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="40.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="4"/>
@@ -1045,184 +1076,186 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2">
         <v>2020</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2">
         <v>2020</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" s="2">
         <v>2020</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1232,379 +1265,381 @@
         <v>2020</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L6" s="2">
         <v>2021</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" s="2">
         <v>2021</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" s="2">
         <v>2021</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="2">
         <v>2021</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" s="2">
         <v>2021</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" s="2">
         <v>2021</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2">
         <v>2020</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" s="2">
         <v>2020</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L14" s="2">
         <v>2020</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1614,157 +1649,159 @@
         <v>2020</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L16" s="2">
         <v>2020</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L17" s="2">
         <v>2020</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="2">
         <v>2020</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1774,157 +1811,159 @@
         <v>2020</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L20" s="2">
         <v>2020</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" s="2">
         <v>2020</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L22" s="2">
         <v>2020</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -1934,157 +1973,159 @@
         <v>2020</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L24" s="2">
         <v>2020</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L25" s="2">
         <v>2020</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L26" s="2">
         <v>2020</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -2094,155 +2135,157 @@
         <v>2020</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L28" s="2">
         <v>2021</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L29" s="2">
         <v>2021</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L30" s="2">
         <v>2021</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2252,155 +2295,157 @@
         <v>2020</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L32" s="2">
         <v>2021</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L33" s="2">
         <v>2021</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L34" s="2">
         <v>2021</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -2410,350 +2455,352 @@
         <v>2020</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L36" s="2">
         <v>2021</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L37" s="2">
         <v>2021</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L38" s="2">
         <v>2021</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L39" s="2">
         <v>2021</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L40" s="2">
         <v>2021</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L41" s="2">
         <v>2021</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L42" s="2">
         <v>2021</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L43" s="2">
         <v>2021</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -2763,157 +2810,159 @@
         <v>2020</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L45" s="2">
         <v>2020</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L46" s="2">
         <v>2020</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L47" s="2">
         <v>2020</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -2923,157 +2972,159 @@
         <v>2020</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L49" s="2">
         <v>2020</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L50" s="2">
         <v>2020</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L51" s="2">
         <v>2020</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -3083,157 +3134,159 @@
         <v>2020</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L53" s="2">
         <v>2020</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L54" s="2">
         <v>2020</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L55" s="2">
         <v>2020</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -3243,302 +3296,302 @@
         <v>2020</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L57" s="2">
         <v>2021</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L58" s="2">
         <v>2021</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2">
         <v>1</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L59" s="2">
         <v>2021</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L60" s="2">
         <v>2020</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L61" s="2">
         <v>2020</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="K62" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J63" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_11.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_11.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="221">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -95,9 +95,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Кабель оптический 10G SFP+</t>
-  </si>
-  <si>
     <t>Учтено в коммутационном оборудовании</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
   </si>
   <si>
     <t>1/0/48</t>
-  </si>
-  <si>
-    <t>Кабель оптический 40G QSFP+</t>
   </si>
   <si>
     <t>FT-QSFP+CabA-3</t>
@@ -658,6 +652,42 @@
   </si>
   <si>
     <t>Сервер S6 / bk103-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 3м</t>
+  </si>
+  <si>
+    <t>FT-SFP+CabA-3</t>
+  </si>
+  <si>
+    <t>Кабель оптический 40G QSFP+, 3м</t>
+  </si>
+  <si>
+    <t>PM350-220/12</t>
+  </si>
+  <si>
+    <t>T9TDS-IAWIZABYY</t>
+  </si>
+  <si>
+    <t>DDR4_RDIMM_64</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 5м</t>
+  </si>
+  <si>
+    <t>FT-SFP+CabA-5</t>
+  </si>
+  <si>
+    <t>FT-SFP+CabA-2</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 2м</t>
+  </si>
+  <si>
+    <t>материнская карта</t>
+  </si>
+  <si>
+    <t>шасси</t>
   </si>
 </sst>
 </file>
@@ -1044,13 +1074,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="110" style="4" customWidth="1"/>
+    <col min="3" max="3" width="132.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
@@ -1076,10 +1108,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1114,29 +1146,29 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -1159,20 +1191,22 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
@@ -1198,20 +1232,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>14</v>
@@ -1237,25 +1273,27 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1276,22 +1314,26 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
@@ -1313,22 +1355,26 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
@@ -1350,22 +1396,26 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
@@ -1387,22 +1437,26 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
@@ -1424,22 +1478,26 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
@@ -1461,22 +1519,26 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
@@ -1498,10 +1560,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -1510,17 +1572,17 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -1543,20 +1605,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>12</v>
@@ -1582,20 +1646,22 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>14</v>
@@ -1621,25 +1687,27 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1660,10 +1728,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1672,17 +1740,17 @@
         <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -1705,20 +1773,22 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>12</v>
@@ -1744,20 +1814,22 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>14</v>
@@ -1783,25 +1855,27 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1822,10 +1896,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1834,17 +1908,17 @@
         <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -1867,20 +1941,22 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>12</v>
@@ -1906,20 +1982,22 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>14</v>
@@ -1945,25 +2023,27 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -1984,10 +2064,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
@@ -1996,17 +2076,17 @@
         <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -2029,20 +2109,22 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>12</v>
@@ -2068,20 +2150,22 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>14</v>
@@ -2107,25 +2191,27 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -2146,27 +2232,27 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -2189,20 +2275,22 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>12</v>
@@ -2228,20 +2316,22 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -2267,25 +2357,27 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2306,27 +2398,27 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -2349,20 +2441,22 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>12</v>
@@ -2388,20 +2482,22 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>14</v>
@@ -2427,25 +2523,27 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -2466,27 +2564,27 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -2509,23 +2607,25 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -2548,23 +2648,25 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -2587,23 +2689,25 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -2626,23 +2730,25 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -2665,20 +2771,22 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>12</v>
@@ -2704,23 +2812,25 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -2743,20 +2853,22 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>14</v>
@@ -2782,25 +2894,27 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -2821,29 +2935,29 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -2866,20 +2980,22 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>12</v>
@@ -2905,20 +3021,22 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>14</v>
@@ -2944,25 +3062,27 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -2983,29 +3103,29 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -3028,20 +3148,22 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>12</v>
@@ -3067,20 +3189,22 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>14</v>
@@ -3106,25 +3230,27 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -3145,29 +3271,29 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -3190,20 +3316,22 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>12</v>
@@ -3229,20 +3357,22 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>14</v>
@@ -3268,25 +3398,27 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -3307,29 +3439,29 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -3352,29 +3484,33 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I58" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="J58" s="2">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L58" s="2">
         <v>2021</v>
@@ -3391,27 +3527,31 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I59" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="J59" s="2">
         <v>1</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L59" s="2">
         <v>2021</v>
@@ -3428,25 +3568,25 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -3469,25 +3609,25 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -3510,36 +3650,36 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>17</v>
@@ -3553,36 +3693,36 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J63" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>17</v>
